--- a/results/yq_test/Wstate_cz/Rb2Re4/cz_2q_wstate_indep_qiskit_45.qasm_rb2_archsize7_mini_dis.xlsx
+++ b/results/yq_test/Wstate_cz/Rb2Re4/cz_2q_wstate_indep_qiskit_45.qasm_rb2_archsize7_mini_dis.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N70"/>
+  <dimension ref="A1:N104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.3578929901123047</v>
+        <v>0.0006031990051269531</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.001722097396850586</v>
+        <v>0.0005521774291992188</v>
       </c>
     </row>
     <row r="7">
@@ -497,13 +497,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.005236387252807617</v>
+        <v>0.04317522048950195</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[(6, 1), (6, 3), (6, 5), (5, 6), (5, 4), (5, 2), (5, 0), (5, 1), (5, 3), (5, 5), (4, 6), (4, 4), (4, 2), (4, 0), (4, 1), (4, 3), (4, 5), (3, 6), (3, 4), (3, 2), (3, 0), (3, 1), (3, 3), (3, 5), (2, 6), (2, 4), (2, 2), (2, 0), (2, 1), (2, 3), (2, 5), (1, 6), (1, 4), (1, 2), (1, 0), (1, 1), (1, 3), (1, 5), (0, 6), (0, 5), (0, 4), (0, 3), (0, 2), (0, 1), (0, 0)]</t>
+          <t>[[6, 1], [6, 3], [6, 5], [5, 6], [5, 4], [5, 2], [5, 0], [5, 1], [5, 3], [5, 5], [4, 6], [4, 4], [4, 2], [4, 0], [4, 1], [4, 3], [4, 5], [3, 6], [3, 4], [3, 2], [3, 0], [3, 1], [3, 3], [3, 5], [2, 6], [2, 4], [2, 2], [2, 0], [2, 1], [2, 3], [2, 5], [1, 6], [1, 4], [1, 2], [1, 0], [1, 1], [1, 3], [1, 5], [0, 6], [0, 5], [0, 4], [0, 3], [0, 2], [0, 1], [0, 0]]</t>
         </is>
       </c>
     </row>
@@ -513,16 +513,6 @@
           <t>[44, 43]</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>[38, 37]</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>[8, 7]</t>
-        </is>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -530,16 +520,6 @@
           <t>[43, 42]</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>[24, 23]</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>[7, 6]</t>
-        </is>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -547,16 +527,6 @@
           <t>[42, 41]</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>[17, 16]</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>[6, 7]</t>
-        </is>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -564,16 +534,6 @@
           <t>[43, 44]</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>[37, 38]</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>[6, 5]</t>
-        </is>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -581,16 +541,6 @@
           <t>[41, 40]</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>[14, 13]</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>[10, 9]</t>
-        </is>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -598,11 +548,6 @@
           <t>[42, 43]</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>[23, 24]</t>
-        </is>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -610,16 +555,6 @@
           <t>[40, 39]</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>[21, 20]</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>[9, 10]</t>
-        </is>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -627,11 +562,6 @@
           <t>[41, 42]</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>[16, 17]</t>
-        </is>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -639,16 +569,6 @@
           <t>[39, 38]</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>[35, 34]</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>[9, 8]</t>
-        </is>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -656,534 +576,690 @@
           <t>[40, 41]</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>[13, 12]</t>
-        </is>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>[39, 40]</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>[20, 21]</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>[3, 2]</t>
+          <t>[38, 37]</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>[37, 36]</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>[5, 4]</t>
+          <t>[39, 40]</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>[38, 39]</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>[34, 35]</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>[8, 9]</t>
+          <t>[37, 36]</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>[36, 35]</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>[4, 3]</t>
+          <t>[38, 39]</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>[36, 37]</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>[5, 6]</t>
+          <t>[36, 35]</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>[34, 33]</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>[7, 8]</t>
+          <t>[37, 38]</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>[35, 36]</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>[4, 5]</t>
+          <t>[35, 34]</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>[33, 32]</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>[2, 1]</t>
+          <t>[36, 37]</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>[32, 31]</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>[13, 14]</t>
+          <t>[34, 33]</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>[33, 34]</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>[3, 4]</t>
+          <t>[35, 36]</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>[31, 30]</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>[1, 0]</t>
+          <t>[33, 32]</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>[32, 33]</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>[2, 3]</t>
+          <t>[34, 35]</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>[30, 29]</t>
+          <t>[32, 31]</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>[31, 32]</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>[1, 2]</t>
+          <t>[33, 34]</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>[29, 28]</t>
+          <t>[31, 30]</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>[30, 31]</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>[0, 1]</t>
+          <t>[32, 33]</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>[28, 27]</t>
+          <t>[30, 29]</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>[29, 30]</t>
+          <t>[31, 32]</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>[27, 26]</t>
+          <t>[29, 28]</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>[28, 29]</t>
+          <t>[30, 31]</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>[26, 25]</t>
+          <t>[28, 27]</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>[27, 28]</t>
+          <t>[29, 30]</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>[25, 24]</t>
+          <t>[27, 26]</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>[26, 27]</t>
+          <t>[28, 29]</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>[25, 26]</t>
+          <t>[26, 25]</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>[23, 22]</t>
+          <t>[27, 28]</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>[24, 25]</t>
+          <t>[25, 24]</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>[22, 21]</t>
+          <t>[26, 27]</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>[22, 23]</t>
+          <t>[24, 23]</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>[20, 19]</t>
+          <t>[25, 26]</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>[21, 22]</t>
+          <t>[23, 22]</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>[19, 18]</t>
+          <t>[24, 25]</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>[18, 17]</t>
+          <t>[22, 21]</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>[19, 20]</t>
+          <t>[23, 24]</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>[18, 19]</t>
+          <t>[21, 20]</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>[16, 15]</t>
+          <t>[22, 23]</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>[17, 18]</t>
+          <t>[20, 19]</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>[15, 14]</t>
+          <t>[21, 22]</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>[15, 16]</t>
+          <t>[19, 18]</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>[14, 15]</t>
+          <t>[20, 21]</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>[12, 11]</t>
+          <t>[18, 17]</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>[11, 10]</t>
+          <t>[19, 20]</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>[12, 13]</t>
+          <t>[17, 16]</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>[11, 12]</t>
+          <t>[18, 19]</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>[10, 11]</t>
+          <t>[16, 15]</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Fidelity:</t>
-        </is>
-      </c>
-      <c r="B64" t="n">
-        <v>0.6431212861280119</v>
+          <t>[17, 18]</t>
+        </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>t_idle:</t>
-        </is>
-      </c>
-      <c r="B65" t="n">
-        <v>477.4</v>
+          <t>[15, 14]</t>
+        </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Movement times</t>
-        </is>
-      </c>
-      <c r="B66" t="n">
-        <v>0</v>
+          <t>[16, 17]</t>
+        </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>parallel times</t>
-        </is>
-      </c>
-      <c r="B67" t="n">
-        <v>55</v>
+          <t>[14, 13]</t>
+        </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>partitions</t>
-        </is>
-      </c>
-      <c r="B68" t="n">
-        <v>1</v>
+          <t>[15, 16]</t>
+        </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>total time:</t>
-        </is>
-      </c>
-      <c r="B69" t="n">
-        <v>0.3774540424346924</v>
+          <t>[13, 12]</t>
+        </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
+          <t>[14, 15]</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>[12, 11]</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>[13, 14]</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>[11, 10]</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>[12, 13]</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>[10, 9]</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>[11, 12]</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>[9, 8]</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>[10, 11]</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>[8, 7]</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>[9, 10]</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>[7, 6]</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>[8, 9]</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>[6, 5]</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>[7, 8]</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>[5, 4]</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>[6, 7]</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>[4, 3]</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>[5, 6]</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>[3, 2]</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>[4, 5]</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>[2, 1]</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>[3, 4]</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>[1, 0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>[2, 3]</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>[1, 2]</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>[0, 1]</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Fidelity:</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>0.64299396071899</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>t_idle:</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>774.4000000000001</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>move_fidelity</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Movement times</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>parallel times</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>partitions</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>total time:</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>0.05388402938842773</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
           <t>T_cz</t>
         </is>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B104" t="inlineStr">
         <is>
           <t>0.2</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="C104" t="inlineStr">
         <is>
           <t>T_eff</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="D104" t="inlineStr">
         <is>
           <t>1500000.0</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="E104" t="inlineStr">
         <is>
           <t>T_trans</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="F104" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
+      <c r="G104" t="inlineStr">
         <is>
           <t>AOD_width</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
+      <c r="H104" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="I70" t="inlineStr">
+      <c r="I104" t="inlineStr">
         <is>
           <t>AOD_height</t>
         </is>
       </c>
-      <c r="J70" t="inlineStr">
+      <c r="J104" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="K70" t="inlineStr">
+      <c r="K104" t="inlineStr">
         <is>
           <t>Move_speed</t>
         </is>
       </c>
-      <c r="L70" t="inlineStr">
+      <c r="L104" t="inlineStr">
         <is>
           <t>0.55</t>
         </is>
       </c>
-      <c r="M70" t="inlineStr">
+      <c r="M104" t="inlineStr">
         <is>
           <t>F_cz</t>
         </is>
       </c>
-      <c r="N70" t="inlineStr">
+      <c r="N104" t="inlineStr">
         <is>
           <t>0.995</t>
         </is>
